--- a/project/LinearReg.xlsx
+++ b/project/LinearReg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofonseca/Documents/FEUP/CG/cg-t02-g05/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFB3B2B-3735-C741-B256-756B7415E1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DE5F8-66EA-D347-96CF-AB959836F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{20E33619-CB1C-7347-AFFA-15851449185E}"/>
+    <workbookView xWindow="-900" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{20E33619-CB1C-7347-AFFA-15851449185E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -206,10 +207,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>Sheet1!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>110</c:v>
                 </c:pt>
@@ -219,15 +220,18 @@
                 <c:pt idx="2">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>237</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-60</c:v>
                 </c:pt>
@@ -236,6 +240,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,9 +1328,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302D17C-B66E-7B4A-AD20-2216892C1066}">
-  <dimension ref="A5:B7"/>
+  <dimension ref="A5:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="169" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1353,6 +1360,14 @@
         <v>157</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-27</v>
+      </c>
+      <c r="B8">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/project/LinearReg.xlsx
+++ b/project/LinearReg.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofonseca/Documents/FEUP/CG/cg-t02-g05/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DE5F8-66EA-D347-96CF-AB959836F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661607E-1806-0B4E-9222-B56A984CBF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{20E33619-CB1C-7347-AFFA-15851449185E}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="28040" windowHeight="17440" xr2:uid="{20E33619-CB1C-7347-AFFA-15851449185E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>y values</t>
+  </si>
+  <si>
+    <t>grayscale values</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -233,16 +244,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-64.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-21.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-48</c:v>
+                  <c:v>-50.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27</c:v>
+                  <c:v>-23.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,16 +1005,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368586</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22535</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>398646</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>13368</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158893</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43427</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1328,17 +1339,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302D17C-B66E-7B4A-AD20-2216892C1066}">
-  <dimension ref="A5:B8"/>
+  <dimension ref="A4:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-60</v>
+        <v>-64.56</v>
       </c>
       <c r="B5">
         <v>110</v>
@@ -1346,7 +1369,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-20</v>
+        <v>-21.76</v>
       </c>
       <c r="B6">
         <v>243</v>
@@ -1354,7 +1377,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-48</v>
+        <v>-50.04</v>
       </c>
       <c r="B7">
         <v>157</v>
@@ -1362,7 +1385,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-27</v>
+        <v>-23.8</v>
       </c>
       <c r="B8">
         <v>237</v>
